--- a/TestData/WAMIS_TestData.xlsx
+++ b/TestData/WAMIS_TestData.xlsx
@@ -27,9 +27,6 @@
     <t>TC01_WorkTypes</t>
   </si>
   <si>
-    <t>TC02_AddProposals</t>
-  </si>
-  <si>
     <t>userName</t>
   </si>
   <si>
@@ -199,6 +196,9 @@
   </si>
   <si>
     <t>2016</t>
+  </si>
+  <si>
+    <t>TC02_AddRegularProposals</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:AB110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -604,85 +604,85 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -690,22 +690,22 @@
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>33</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -730,7 +730,7 @@
     </row>
     <row r="3" spans="1:28">
       <c r="A3" s="3" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -739,49 +739,49 @@
       <c r="F3" s="3"/>
       <c r="G3" s="4"/>
       <c r="H3" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="Q3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="R3" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="R3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="5" t="s">
+      <c r="T3" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="5" t="s">
-        <v>45</v>
-      </c>
       <c r="V3" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="W3" s="3"/>
       <c r="X3" s="3"/>
@@ -792,7 +792,7 @@
     </row>
     <row r="4" spans="1:28">
       <c r="A4" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -801,19 +801,19 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="J4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="K4" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="L4" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -822,16 +822,16 @@
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
       <c r="S4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="T4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="T4" s="6" t="s">
-        <v>44</v>
-      </c>
       <c r="U4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="W4" s="3"/>
       <c r="X4" s="3"/>
@@ -842,7 +842,7 @@
     </row>
     <row r="5" spans="1:28">
       <c r="A5" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -866,10 +866,10 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
@@ -878,7 +878,7 @@
     </row>
     <row r="6" spans="1:28">
       <c r="A6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -904,16 +904,16 @@
       <c r="W6" s="3"/>
       <c r="X6" s="3"/>
       <c r="Y6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Z6" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="AA6" s="5" t="s">
-        <v>59</v>
-      </c>
       <c r="AB6" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:28">
